--- a/Data/Modeling Stage/Feature Selection/R_Gonz_no_assign_feature_selection_Date_threshold_25_no_test_SMOTE.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_no_assign_feature_selection_Date_threshold_25_no_test_SMOTE.xlsx
@@ -47,12 +47,12 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
@@ -71,85 +71,85 @@
     <t>Clicks per day</t>
   </si>
   <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
     <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -879,19 +879,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -908,13 +908,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -972,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1132,13 +1132,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1158,19 +1158,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1913,30 +1913,30 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2064,31 +2064,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2288,10 +2288,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2347,12 +2347,12 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2416,16 +2416,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
